--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="73" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>874.20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1,027.42</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1,003.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1,180.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1,170.25</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1,180.10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1,003.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1,027.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>874.20</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1180.1</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>874.2</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1051.04</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>42.90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>61.96</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>63.51</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>87.45</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>64.744</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>961.65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1,070.32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,071.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,243.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1,232.21</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,243.61</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,071.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1,070.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>961.65</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1243.61</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>961.65</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1115.784</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>107.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>105.93</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>107.81</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>80.84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>107.81</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>80.84</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>95.32599999999999</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>8.40</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>8.292</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>243.41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>282.07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>261.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>310.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>284.31</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>310.14</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>261.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>282.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>243.41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>310.14</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>243.41</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>276.214</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>632.45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>692.94</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>702.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>817.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>833.57</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>817.89</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>702.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>692.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>632.45</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>833.5700000000001</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>632.45</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>735.952</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>9.62</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>23.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>9.954000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>634.78</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>704.52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>726.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>820.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>843.19</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>820.24</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>726.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>704.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>634.78</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>843.1900000000001</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>634.78</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>745.9059999999999</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>382.08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>409.67</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>450.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>499.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>544.46</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>499.64</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>450.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>409.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>382.08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>544.46</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>382.08</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>457.18</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>252.70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>276.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>320.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>298.73</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>320.60</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>276.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>252.70</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>320.6</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>288.726</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>252.70</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>294.85</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>276.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>320.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>298.73</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>320.60</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>276.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>294.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>252.70</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>320.6</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>288.726</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>100.71</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>109.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>101.58</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>109.24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>100.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>85.66</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>109.24</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>85.66</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>98.36999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>167.04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>194.14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>182.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>211.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>197.15</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>211.36</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>182.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>194.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>167.04</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>211.36</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>167.04</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>190.356</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>167.04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>194.14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>182.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>211.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>197.15</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>211.36</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>182.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>194.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>167.04</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>211.36</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>167.04</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>190.356</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>50.14</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>50.14</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>50.14</t>
         </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>49.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>49.78</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>50.14</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>49.996</v>
       </c>
     </row>
     <row r="20"/>
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>42.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>39.52</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>42.46</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>39.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>33.56</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>38.23</v>
       </c>
     </row>
     <row r="23">
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>39.16</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>42.10</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>36.32</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>38.76</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>33.35</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>37.938</v>
       </c>
     </row>
     <row r="24"/>
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>39.52</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>42.46</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>39.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>33.56</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>42.46</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>38.23</v>
       </c>
     </row>
     <row r="27">
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>39.16</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>42.10</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>36.32</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>38.76</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>33.35</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>37.938</v>
       </c>
     </row>
     <row r="28"/>
@@ -1356,37 +1153,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>1.908</v>
       </c>
     </row>
     <row r="31">
@@ -1397,37 +1185,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>38.39</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>38.39</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>38.39</t>
         </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>37.93</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>37.93</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>37.93</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>38.206</v>
       </c>
     </row>
     <row r="32"/>
@@ -1485,15 +1264,6 @@
           <t>3.09</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>3.09</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1526,15 +1296,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1544,37 +1305,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>62.07</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>62.07</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>61.61</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>61.61</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>61.61</t>
         </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>62.07</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>62.07</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>62.07</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>61.61</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>61.794</v>
       </c>
     </row>
   </sheetData>
